--- a/SourceDataTables/FigS14a.xlsx
+++ b/SourceDataTables/FigS14a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -157,14 +157,50 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,18 +219,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -205,7 +241,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -216,7 +252,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -224,7 +260,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -235,7 +271,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -246,7 +282,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -257,7 +293,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -265,7 +301,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -276,7 +312,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -284,7 +320,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -292,7 +328,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -303,7 +339,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -314,7 +350,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -322,7 +358,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -333,7 +369,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -344,7 +380,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -352,7 +388,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -360,7 +396,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -368,7 +404,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -379,7 +415,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -390,7 +426,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -398,7 +434,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -409,7 +445,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -420,7 +456,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -431,7 +467,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -442,7 +478,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -450,7 +486,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -461,7 +497,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -472,7 +508,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -483,7 +519,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -491,7 +527,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -499,7 +535,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -507,7 +543,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -515,7 +551,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -523,7 +559,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS14a.xlsx
+++ b/SourceDataTables/FigS14a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -175,11 +175,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -201,6 +205,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,18 +227,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -241,7 +249,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -252,7 +260,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -271,7 +279,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -282,7 +290,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -293,7 +301,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -301,7 +309,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -312,7 +320,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -320,7 +328,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -328,7 +336,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -339,7 +347,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -350,7 +358,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -358,7 +366,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -369,7 +377,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -380,7 +388,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -388,7 +396,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -396,7 +404,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -404,7 +412,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -415,7 +423,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -426,7 +434,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -434,7 +442,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -445,7 +453,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -456,7 +464,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -467,7 +475,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -478,7 +486,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -486,7 +494,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -497,7 +505,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -508,7 +516,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -519,7 +527,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -527,7 +535,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -535,7 +543,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -543,7 +551,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -551,7 +559,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -559,7 +567,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS14a.xlsx
+++ b/SourceDataTables/FigS14a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,29 +161,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -191,24 +173,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,18 +191,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -249,7 +213,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -260,7 +224,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -268,7 +232,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -279,7 +243,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -290,7 +254,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -301,7 +265,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -309,7 +273,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -320,7 +284,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -328,7 +292,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -336,7 +300,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -347,7 +311,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -358,7 +322,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -366,7 +330,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -377,7 +341,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -388,7 +352,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -396,7 +360,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -404,7 +368,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -412,7 +376,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -423,7 +387,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -434,7 +398,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -442,7 +406,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -453,7 +417,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -464,7 +428,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -475,7 +439,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -486,7 +450,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -494,7 +458,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -505,7 +469,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -516,7 +480,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -527,7 +491,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -535,7 +499,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -543,7 +507,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -551,7 +515,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -559,7 +523,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -567,7 +531,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
